--- a/Assets/_Excel/supplies.xlsx
+++ b/Assets/_Excel/supplies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BA5608-E83C-4D90-B9AF-EF980D2C2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648286C4-D30E-4A2D-B08A-F9E47906E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="4770" windowWidth="27675" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="2565" windowWidth="27675" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
